--- a/medicine/Enfance/Michael_Glennon/Michael_Glennon.xlsx
+++ b/medicine/Enfance/Michael_Glennon/Michael_Glennon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michael Charles Glennon, né le 13 mai 1944 à Melbourne et mort le 1er janvier 2014 à Ararat[1], est un prêtre australien condamné pour agressions sexuelles sur des enfants.  Michael Glennon a dirigé un camp de jeunes à Lancefield dans l'État du Victoria, où la plupart des abus ont eu lieu.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michael Charles Glennon, né le 13 mai 1944 à Melbourne et mort le 1er janvier 2014 à Ararat, est un prêtre australien condamné pour agressions sexuelles sur des enfants.  Michael Glennon a dirigé un camp de jeunes à Lancefield dans l'État du Victoria, où la plupart des abus ont eu lieu.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michael Charles Glennon est né en 1944 dans la banlieue nord de Melbourne. Il est ordonné prêtre en 1971 et devient aumonier pour des enfants scouts[2].
-En 2003, Glennon est reconnu coupable d'avoir abusé sexuellement de 15 enfants, aussi bien des fillettes que des garçons, dans des affaires judiciaires s'étalant sur 25 ans et condamné à une peine de 33 ans et demi de prison avec une période de non-libération conditionnelle de 26 ans et demi[3].
-Le 23 décembre 2013, alors que Glennon est en prison, 10 nouvelle accusations de pédophilie sont engagées à son encontre. Mais il décède le 1 janvier 2014, les poursuites sont abandonnées de fait[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michael Charles Glennon est né en 1944 dans la banlieue nord de Melbourne. Il est ordonné prêtre en 1971 et devient aumonier pour des enfants scouts.
+En 2003, Glennon est reconnu coupable d'avoir abusé sexuellement de 15 enfants, aussi bien des fillettes que des garçons, dans des affaires judiciaires s'étalant sur 25 ans et condamné à une peine de 33 ans et demi de prison avec une période de non-libération conditionnelle de 26 ans et demi.
+Le 23 décembre 2013, alors que Glennon est en prison, 10 nouvelle accusations de pédophilie sont engagées à son encontre. Mais il décède le 1 janvier 2014, les poursuites sont abandonnées de fait.
 </t>
         </is>
       </c>
